--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409460.438109823</v>
+        <v>3405154.72173375</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>352.1831630251589</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>97.90026742207581</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>21.30876781725424</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>19.76755821211439</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>222.2477262048924</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>207.2899587680351</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>164.8573122393718</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>84.39400964748076</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>88.86957797204941</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>7.141033812974471</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>53.76947475493857</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>178.8076944857614</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>209.4839379718099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.8546892482051</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>185.3892167411514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>178.6672192220308</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>73.9504633112418</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>35.01782305658526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>37.01163236946583</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.70681342860046</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>172.3645574474261</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>156.523885790703</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.990120852571</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="C2" t="n">
-        <v>1648.990120852571</v>
+        <v>1160.683002486844</v>
       </c>
       <c r="D2" t="n">
-        <v>1290.72442224582</v>
+        <v>802.4173038800939</v>
       </c>
       <c r="E2" t="n">
-        <v>904.936169647576</v>
+        <v>416.6290512818496</v>
       </c>
       <c r="F2" t="n">
-        <v>897.9906688983725</v>
+        <v>409.6835505326462</v>
       </c>
       <c r="G2" t="n">
-        <v>480.0268607965594</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>152.8321408325622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916692</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916692</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>2035.589960916692</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>677.1880571638397</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>462.8996339820025</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>235.5914466506042</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>73.91021233765171</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2077.844283572241</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.378525311161</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.378525311161</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>489.3282683246672</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>489.3282683246672</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>489.3282683246672</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>897.6401987183604</v>
+        <v>609.4209148486752</v>
       </c>
       <c r="C8" t="n">
-        <v>897.6401987183604</v>
+        <v>240.4583979082635</v>
       </c>
       <c r="D8" t="n">
-        <v>897.6401987183604</v>
+        <v>240.4583979082635</v>
       </c>
       <c r="E8" t="n">
-        <v>511.8519461201161</v>
+        <v>240.4583979082635</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>233.5128971590601</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>220.4655194358916</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,16 +4810,16 @@
         <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>871.6816390050013</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1058.381051830409</v>
+        <v>1663.175414063304</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1857.509626955287</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2404.670831722364</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4846,10 +4846,10 @@
         <v>1759.625845149689</v>
       </c>
       <c r="X8" t="n">
-        <v>1674.379370758294</v>
+        <v>1386.160086888609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1284.240038782482</v>
+        <v>996.020754912797</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>75.36635275580475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>142.9741724191618</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>647.3357122852804</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1287.881061752385</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1955.425461779395</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2504.861470532118</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.072212679962</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="C10" t="n">
-        <v>226.072212679962</v>
+        <v>964.1104128028916</v>
       </c>
       <c r="D10" t="n">
-        <v>226.072212679962</v>
+        <v>813.9937733905558</v>
       </c>
       <c r="E10" t="n">
-        <v>226.072212679962</v>
+        <v>666.0806798081627</v>
       </c>
       <c r="F10" t="n">
-        <v>226.072212679962</v>
+        <v>519.1907323102523</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
         <v>71.81756957972706</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>461.2749290456303</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>454.0617635779793</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>226.072212679962</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>226.072212679962</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687887</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.6047790701</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2106.003314093041</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2387.388512467612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,13 +5843,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>957.0223605197863</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.2297813762561</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1030.857960751344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>810.0653816078141</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,28 +6226,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6305,22 +6305,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6472,16 +6472,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3025.687952571559</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3825.054730371253</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3597.065179473235</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4262.384993990607</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3232.00962274135</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3063.073439813443</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2912.956800401108</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4151.857387650098</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3862.440217613137</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3634.45066671512</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3413.65808757159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,28 +7171,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2985.713220456422</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2884.99926749824</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2734.882628085904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3167.361685286662</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,28 +7408,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4516.727538815335</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4227.652312159533</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.341129796739</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>3006.404946868832</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456496</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4349.873382911373</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>4349.873382911373</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>4095.188894705487</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>3805.771724668526</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>3577.782173770509</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>3356.989594626978</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>256.2713518484393</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>148.2422363886232</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>27.87297380358524</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>20.72114122105265</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-2.300097184559153e-14</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>127.256811246706</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>38.59775584152683</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>42.65370535201808</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.72996410388967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>161.3036423121233</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>47.04243616700634</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>74.66500970697055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>251.5051752800057</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>109.4223302771033</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>67.54000767002738</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>45.04089287986218</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>60.88156453658522</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210059</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210055</v>
@@ -26349,13 +26349,13 @@
         <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808067</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>1.655303094594274e-10</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682697</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682762</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143811.7798631325</v>
+        <v>-143811.7798631326</v>
       </c>
       <c r="C6" t="n">
         <v>446156.0993514118</v>
@@ -26530,40 +26530,40 @@
         <v>290352.2932576174</v>
       </c>
       <c r="E6" t="n">
-        <v>-151420.8180503909</v>
+        <v>-151768.1973047473</v>
       </c>
       <c r="F6" t="n">
-        <v>619631.8733304162</v>
+        <v>619284.4940760584</v>
       </c>
       <c r="G6" t="n">
-        <v>619631.8733304155</v>
+        <v>619284.4940760584</v>
       </c>
       <c r="H6" t="n">
-        <v>619631.8733304158</v>
+        <v>619284.4940760586</v>
       </c>
       <c r="I6" t="n">
-        <v>619631.8733304157</v>
+        <v>619284.4940760584</v>
       </c>
       <c r="J6" t="n">
-        <v>443208.6541378227</v>
+        <v>442861.2748834656</v>
       </c>
       <c r="K6" t="n">
-        <v>619631.8733304156</v>
+        <v>619284.4940760586</v>
       </c>
       <c r="L6" t="n">
-        <v>619631.8733304155</v>
+        <v>619284.4940760585</v>
       </c>
       <c r="M6" t="n">
-        <v>495423.3626223573</v>
+        <v>495075.9833680003</v>
       </c>
       <c r="N6" t="n">
-        <v>619631.8733304157</v>
+        <v>619284.4940760585</v>
       </c>
       <c r="O6" t="n">
-        <v>619631.8733304157</v>
+        <v>619284.4940760586</v>
       </c>
       <c r="P6" t="n">
-        <v>619631.8733304156</v>
+        <v>619284.4940760585</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>61.60100699563611</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>54.03104882278544</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>125.3564241629036</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>394.0166118086806</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>126.9932425125206</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>44.84768455579294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>150.1835718358437</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>285.3370910309883</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>78.37724312657842</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28070,13 +28070,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.3819645236165</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29280,10 +29280,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29337,13 +29337,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>305.18767694725</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q15" t="n">
-        <v>307.3280120589134</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,22 +32311,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33025,13 +33025,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>618.3047484269334</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,34 +33259,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>469.5567819573404</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>272.9327299394441</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>397.0073678497051</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>260.0950901760237</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>21.63976862165687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35263,7 +35263,7 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>221.3845166277846</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>167.346237972891</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35661,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.3462379728918</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>479.7503686470593</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>327.4227480353221</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>130.3364854949997</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3405154.72173375</v>
+        <v>3406915.252036538</v>
       </c>
     </row>
     <row r="7">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>352.1831630251589</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>154.8473133620217</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>19.76755821211439</v>
+        <v>79.99394863182381</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>175.7423577132101</v>
       </c>
       <c r="H8" t="n">
-        <v>164.8573122393718</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>88.86957797204941</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>24.05163856504932</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>73.7478529248619</v>
       </c>
       <c r="T13" t="n">
-        <v>178.8076944857614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>124.8808320771208</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>29.24923305751697</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>50.17139158339562</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529.645519427256</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.683002486844</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>802.4173038800939</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>416.6290512818496</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>409.6835505326462</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2309.53148622448</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2309.53148622448</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y2" t="n">
-        <v>1916.245359491378</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685519</v>
+        <v>527.4787034827857</v>
       </c>
       <c r="E5" t="n">
-        <v>80.85571308685519</v>
+        <v>141.6904508845415</v>
       </c>
       <c r="F5" t="n">
-        <v>73.91021233765171</v>
+        <v>134.744950135338</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4704,25 +4704,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.4209148486752</v>
+        <v>238.4060156132145</v>
       </c>
       <c r="C8" t="n">
-        <v>240.4583979082635</v>
+        <v>238.4060156132145</v>
       </c>
       <c r="D8" t="n">
-        <v>240.4583979082635</v>
+        <v>238.4060156132145</v>
       </c>
       <c r="E8" t="n">
-        <v>240.4583979082635</v>
+        <v>238.4060156132145</v>
       </c>
       <c r="F8" t="n">
-        <v>233.5128971590601</v>
+        <v>231.460514864011</v>
       </c>
       <c r="G8" t="n">
-        <v>220.4655194358916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,19 +4807,19 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1857.509626955287</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2404.670831722364</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149689</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.160086888609</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y8" t="n">
-        <v>996.020754912797</v>
+        <v>625.0058556773363</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1747.448946920904</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>2296.884955673627</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1053.877663279709</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="C10" t="n">
-        <v>964.1104128028916</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="D10" t="n">
-        <v>813.9937733905558</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="E10" t="n">
-        <v>666.0806798081627</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="F10" t="n">
-        <v>519.1907323102523</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="H10" t="n">
         <v>196.3292442054008</v>
@@ -4992,22 +4992,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>1029.583078870568</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>740.4309024482483</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>485.7464142423614</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>196.3292442054008</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,7 +5117,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.8412329032296</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2305.424599100479</v>
       </c>
       <c r="T13" t="n">
-        <v>2016.448712673667</v>
+        <v>2085.82313412342</v>
       </c>
       <c r="U13" t="n">
-        <v>1727.373486017864</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V13" t="n">
-        <v>1472.688997811978</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.271827775017</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X13" t="n">
-        <v>955.2822768769995</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.4896977334694</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="14">
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5661,10 +5661,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7080,13 +7080,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,37 +7162,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2396.284910263699</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,28 +7408,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,13 +8464,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>148.2422363886232</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>20.72114122105265</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1979795936941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.300097184559153e-14</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>107.2784330767827</v>
       </c>
       <c r="T13" t="n">
-        <v>38.59775584152683</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>161.3036423121233</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>16.20385512672606</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>690954.1614566039</v>
+        <v>690954.161456604</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>690954.1614566039</v>
+        <v>690954.1614566038</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>690954.1614566039</v>
+        <v>690954.161456604</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210059</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808062</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
@@ -26444,7 +26444,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143811.7798631326</v>
+        <v>-143811.7798631327</v>
       </c>
       <c r="C6" t="n">
         <v>446156.0993514118</v>
       </c>
       <c r="D6" t="n">
-        <v>290352.2932576174</v>
+        <v>290352.2932576177</v>
       </c>
       <c r="E6" t="n">
-        <v>-151768.1973047473</v>
+        <v>-151455.5559758262</v>
       </c>
       <c r="F6" t="n">
-        <v>619284.4940760584</v>
+        <v>619597.1354049797</v>
       </c>
       <c r="G6" t="n">
-        <v>619284.4940760584</v>
+        <v>619597.13540498</v>
       </c>
       <c r="H6" t="n">
-        <v>619284.4940760586</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="I6" t="n">
-        <v>619284.4940760584</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="J6" t="n">
-        <v>442861.2748834656</v>
+        <v>443173.916212387</v>
       </c>
       <c r="K6" t="n">
-        <v>619284.4940760586</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="L6" t="n">
-        <v>619284.4940760585</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="M6" t="n">
-        <v>495075.9833680003</v>
+        <v>495388.6246969216</v>
       </c>
       <c r="N6" t="n">
-        <v>619284.4940760585</v>
+        <v>619597.1354049802</v>
       </c>
       <c r="O6" t="n">
-        <v>619284.4940760586</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="P6" t="n">
-        <v>619284.4940760585</v>
+        <v>619597.1354049797</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>61.60100699563611</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>61.60100699563614</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>394.0166118086806</v>
+        <v>333.7902213889712</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>237.1745462327267</v>
       </c>
       <c r="H8" t="n">
-        <v>150.1835718358437</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>78.37724312657842</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,16 +28064,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>199.3212661557094</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9747494877451</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35184,13 +35184,13 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>260.0950901760237</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35263,16 +35263,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>221.3845166277846</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>467.3215277439574</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>97.00034207341486</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36141,10 +36141,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
